--- a/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,15 +49,12 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>panic</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -70,7 +67,7 @@
     <t>negative</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>best</t>
   </si>
   <si>
     <t>interesting</t>
@@ -79,22 +76,25 @@
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>free</t>
   </si>
   <si>
     <t>safe</t>
@@ -103,82 +103,73 @@
     <t>better</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>join</t>
+    <t>important</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>help</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>consumer</t>
+    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>co</t>
@@ -539,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,10 +538,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -608,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -626,19 +617,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -650,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -658,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -676,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -700,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,16 +720,16 @@
         <v>90</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -750,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -758,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4</v>
+        <v>0.3468992248062016</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -776,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.9322033898305084</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -800,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -808,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3825503355704698</v>
+        <v>0.3355704697986577</v>
       </c>
       <c r="C7">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -826,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -850,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -858,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3527131782945737</v>
+        <v>0.3068783068783069</v>
       </c>
       <c r="C8">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="D8">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>334</v>
+        <v>131</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8536585365853658</v>
+        <v>0.828125</v>
       </c>
       <c r="L8">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="M8">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -900,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -908,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3174603174603174</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -926,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -950,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1706349206349206</v>
+        <v>0.09115281501340483</v>
       </c>
       <c r="C10">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -976,95 +967,71 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>209</v>
+        <v>339</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.8085106382978723</v>
+      </c>
+      <c r="L10">
+        <v>38</v>
+      </c>
+      <c r="M10">
+        <v>38</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K10">
-        <v>0.8297872340425532</v>
-      </c>
-      <c r="L10">
-        <v>39</v>
-      </c>
-      <c r="M10">
-        <v>39</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
+      <c r="K11">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="L11">
+        <v>66</v>
+      </c>
+      <c r="M11">
+        <v>66</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1018766756032172</v>
-      </c>
-      <c r="C11">
-        <v>38</v>
-      </c>
-      <c r="D11">
-        <v>38</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>335</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11">
-        <v>0.828125</v>
-      </c>
-      <c r="L11">
-        <v>106</v>
-      </c>
-      <c r="M11">
-        <v>106</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.7887323943661971</v>
+        <v>0.8</v>
       </c>
       <c r="L12">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="M12">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1076,21 +1043,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L13">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="M13">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1102,21 +1069,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.7758620689655172</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1128,21 +1095,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.775</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L15">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="M15">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1159,16 +1126,16 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7647058823529411</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L16">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1180,21 +1147,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.7264150943396226</v>
+        <v>0.71875</v>
       </c>
       <c r="L17">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="M17">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1206,21 +1173,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="L18">
         <v>33</v>
       </c>
-      <c r="K18">
-        <v>0.7125</v>
-      </c>
-      <c r="L18">
-        <v>114</v>
-      </c>
       <c r="M18">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1232,21 +1199,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6944444444444444</v>
+        <v>0.625</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1258,21 +1225,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.6702127659574468</v>
+        <v>0.62</v>
       </c>
       <c r="L20">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1284,21 +1251,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6458333333333334</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1310,21 +1277,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6057441253263708</v>
+        <v>0.6005221932114883</v>
       </c>
       <c r="L22">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M22">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1336,21 +1303,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.5813953488372093</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1362,21 +1329,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.5735294117647058</v>
+        <v>0.5558823529411765</v>
       </c>
       <c r="L24">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M24">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1388,21 +1355,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5600000000000001</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1414,12 +1381,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>22</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26">
         <v>0.5168539325842697</v>
@@ -1445,16 +1412,16 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5152542372881356</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L27">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1466,21 +1433,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>143</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.484375</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1492,21 +1459,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.4520547945205479</v>
+        <v>0.4518828451882845</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="M29">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1518,21 +1485,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>40</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.4518828451882845</v>
+        <v>0.4375</v>
       </c>
       <c r="L30">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1544,21 +1511,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>131</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.4230769230769231</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1570,21 +1537,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.4</v>
+        <v>0.1100478468899522</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1596,21 +1563,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>39</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.1057692307692308</v>
+        <v>0.09375</v>
       </c>
       <c r="L33">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1622,21 +1589,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.1028708133971292</v>
+        <v>0.06487695749440715</v>
       </c>
       <c r="L34">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="M34">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1648,21 +1615,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>375</v>
+        <v>836</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.06823266219239374</v>
+        <v>0.04217536071032187</v>
       </c>
       <c r="L35">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="M35">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1674,21 +1641,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>833</v>
+        <v>863</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.04661487236403995</v>
+        <v>0.03460207612456748</v>
       </c>
       <c r="L36">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1700,111 +1667,59 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>859</v>
+        <v>837</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.04</v>
+        <v>0.02897196261682243</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>624</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.0294392523364486</v>
+        <v>0.01547887778136085</v>
       </c>
       <c r="L38">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="M38">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="N38">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="O38">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K39">
-        <v>0.02883506343713956</v>
-      </c>
-      <c r="L39">
-        <v>25</v>
-      </c>
-      <c r="M39">
-        <v>25</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K40">
-        <v>0.0128783000643915</v>
-      </c>
-      <c r="L40">
-        <v>40</v>
-      </c>
-      <c r="M40">
-        <v>41</v>
-      </c>
-      <c r="N40">
-        <v>0.98</v>
-      </c>
-      <c r="O40">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>3066</v>
+        <v>3053</v>
       </c>
     </row>
   </sheetData>
